--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233664.995947987</v>
+        <v>-1235563.228052111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512324.8635156729</v>
+        <v>175370.4106663333</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>122.4067942831487</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>142.348623415034</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.33149515919849</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>101.2762984915475</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>279.8859696286841</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>114.4309973598276</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,22 +944,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>47.33350719796951</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>234.2559520454605</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.49138749858589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>142.1889080056834</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>168.4276127076254</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>10.46499054460254</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>73.50096938091988</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>217.9981815644954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>220.4855699130508</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.4333835975975</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.7438101404423</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>71.23898279804024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>59.7794577366496</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>45.88884117514944</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249389</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>56.05123042703171</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898801</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373747</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
         <v>42.28735533463129</v>
@@ -2998,10 +2998,10 @@
         <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463229</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
         <v>221.3323618866839</v>
@@ -4325,16 +4325,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2342.299687314251</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2088.537901952342</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1757.475014608772</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="X2" t="n">
-        <v>1342.105918247171</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,28 +4422,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>625.8296928008309</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>336.6560824553989</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>336.6560824553989</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>760.2723052017247</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
         <v>402.0066065949742</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2594.308778116423</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2594.308778116423</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2263.245890772852</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1910.477235502738</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1537.011477241658</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1146.872145265846</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1816.442957727742</v>
+        <v>1017.943709336667</v>
       </c>
       <c r="C8" t="n">
-        <v>1447.48044078733</v>
+        <v>648.9811923962552</v>
       </c>
       <c r="D8" t="n">
-        <v>1089.21474218058</v>
+        <v>648.9811923962552</v>
       </c>
       <c r="E8" t="n">
-        <v>1089.21474218058</v>
+        <v>648.9811923962552</v>
       </c>
       <c r="F8" t="n">
-        <v>678.2288373909723</v>
+        <v>642.0356916470517</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>224.0718835452386</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.442957727742</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2500993552354</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V10" t="n">
-        <v>490.2500993552354</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.597763704657</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1089.812348494163</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>800.6837097077211</v>
       </c>
       <c r="V13" t="n">
-        <v>1278.716087159422</v>
+        <v>545.9992215018342</v>
       </c>
       <c r="W13" t="n">
-        <v>989.2989171224613</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>761.3093662244439</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5367,16 +5367,16 @@
         <v>1156.807040804714</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>965.2084601534104</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>965.2084601534104</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>675.7912901164498</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184324</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>473.8437298546982</v>
+        <v>791.410354538264</v>
       </c>
       <c r="M18" t="n">
-        <v>794.1790493843999</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>268.6754855415407</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.156678913841</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X22" t="n">
-        <v>1061.198110430972</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y22" t="n">
-        <v>1061.198110430972</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M24" t="n">
-        <v>1954.109744073479</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>293.9874647357258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>293.9874647357258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.069692924718</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3690873100876</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>447.0175521403273</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>447.0175521403273</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1501.784655700565</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,7 +6652,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,13 +6710,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>381.3300194168669</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M33" t="n">
-        <v>1149.698165809328</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.109744073479</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506733</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083213</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103138</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982983</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,19 +6953,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>607.6841393416023</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>1221.581209098491</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,25 +7072,25 @@
         <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7105,13 +7105,13 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
@@ -7120,10 +7120,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.325632214049</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>990.9427979105847</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1795.354376174735</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7579,25 +7579,25 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>331.8762990088225</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>148.2605620664938</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>144.7973333865067</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83.19386011454448</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>6.637028707906953</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037966</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>124.4198406026834</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.13946175933256</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.75178248552652</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.7042597262305</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>154.4706725909969</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154452</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>120.6047272882281</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>48.84084321165207</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>111.1955906715961</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1251292.991160668</v>
+        <v>1251292.991160669</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1251292.991160668</v>
+        <v>1251292.991160669</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26317,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
@@ -26335,25 +26335,25 @@
         <v>117308.7179213126</v>
       </c>
       <c r="J2" t="n">
-        <v>117308.7179213127</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="N2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="O2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="P2" t="n">
         <v>123156.2654796426</v>
-      </c>
-      <c r="N2" t="n">
-        <v>123156.2654796426</v>
-      </c>
-      <c r="O2" t="n">
-        <v>123156.2654796426</v>
-      </c>
-      <c r="P2" t="n">
-        <v>123156.2654796425</v>
       </c>
     </row>
     <row r="3">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371243</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758901</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758901</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758887</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905759235</v>
+        <v>787.79369057581</v>
       </c>
       <c r="K4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="L4" t="n">
         <v>23206.58093189637</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189642</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685617.2085681449</v>
+        <v>-685635.7023060793</v>
       </c>
       <c r="C6" t="n">
-        <v>-98761.95176438607</v>
+        <v>-98761.9517643861</v>
       </c>
       <c r="D6" t="n">
-        <v>-98761.95176438606</v>
+        <v>-98761.95176438612</v>
       </c>
       <c r="E6" t="n">
-        <v>-500626.4381948758</v>
+        <v>-500723.8973208481</v>
       </c>
       <c r="F6" t="n">
-        <v>24533.5982820201</v>
+        <v>24436.13915604794</v>
       </c>
       <c r="G6" t="n">
-        <v>24533.59828202012</v>
+        <v>24436.13915604792</v>
       </c>
       <c r="H6" t="n">
-        <v>24533.59828202006</v>
+        <v>24436.13915604791</v>
       </c>
       <c r="I6" t="n">
-        <v>24533.59828202009</v>
+        <v>24436.1391560479</v>
       </c>
       <c r="J6" t="n">
-        <v>-151889.6209105728</v>
+        <v>-151987.0800365452</v>
       </c>
       <c r="K6" t="n">
-        <v>-52270.93337599176</v>
+        <v>-52270.93337599162</v>
       </c>
       <c r="L6" t="n">
-        <v>2234.578727720713</v>
+        <v>2234.578727720771</v>
       </c>
       <c r="M6" t="n">
-        <v>-132566.4365061163</v>
+        <v>-132566.4365061165</v>
       </c>
       <c r="N6" t="n">
-        <v>2234.578727720742</v>
+        <v>2234.578727720815</v>
       </c>
       <c r="O6" t="n">
-        <v>2234.578727720887</v>
+        <v>2234.578727720786</v>
       </c>
       <c r="P6" t="n">
-        <v>-52270.93337599178</v>
+        <v>-52270.93337599169</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>94.04152607450906</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>227.3824772634351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>84.05296098408336</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>101.8393936825967</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>123.7588069665368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>268.302844303653</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>169.1148131596883</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>17.88169127836753</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.0932658535089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>271.5952620151116</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>155.4951600567317</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.8168836973752</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>202.9246923626428</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,10 +28105,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578332</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>278.4799167015761</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>199.2022664297724</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32087,16 +32087,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>58.6690462609929</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>152.4580040397285</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32318,22 +32318,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>148.1449823495588</v>
+        <v>342.2955526785773</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>212.6272478467031</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>351.8516207003249</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>348.9381740704318</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33014,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -33038,22 +33038,22 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>100.5826050876807</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,31 +33111,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540871</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>388.5379076416625</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,31 +33348,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,43 +33491,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>54.69678998811304</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,25 +33728,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>220.9982683546633</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,34 +33965,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>361.1511322591787</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041505</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>268.1222443746799</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,16 +34466,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901183</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7658822251611</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>522.7732962577539</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35507,10 +35507,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>406.6697085212131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>403.7240788720135</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>380.4309478731438</v>
+        <v>574.5815182021623</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>536.1982776746847</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>699.8522829605452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>672.5092038984134</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>189.280054564378</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>6.126528144475494</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>351.8486799199658</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>639.8039824739476</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>286.982755511698</v>
+        <v>376.5600331328008</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>347.6220663928829</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>593.4370977827637</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303347</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2.201088942062294</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,10 +37944,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>616.1229066349001</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
